--- a/csv/policies/reference/Ref_incandescent phase out/formula_Ref_incandescent phase out_ON.xlsx
+++ b/csv/policies/reference/Ref_incandescent phase out/formula_Ref_incandescent phase out_ON.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_incandescent phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30A3176-D66E-4BFC-8FD1-DC1D2DEB1CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E0EA7B-2D3F-4B43-8B1A-E1DD46259B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{328B5F78-AD75-480C-83D9-00A943BEFE61}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{DAAD9BA5-4AC7-41A5-A288-8AEB98C5A4B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +80,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Residential.Buildings.Floorspace.Lighting</t>
+    <t>CIMS.CAN.ON.Residential.Dwellings.Lighting</t>
   </si>
   <si>
     <t>ON</t>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D824C095-23D5-4FA1-8013-A31C45CC9AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD3E22F-DF0B-46E6-8069-03427E0C8A0A}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/csv/policies/reference/Ref_incandescent phase out/formula_Ref_incandescent phase out_ON.xlsx
+++ b/csv/policies/reference/Ref_incandescent phase out/formula_Ref_incandescent phase out_ON.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_incandescent phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E0EA7B-2D3F-4B43-8B1A-E1DD46259B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D74B814-6F00-47B7-9CFE-7C486D4C1832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{DAAD9BA5-4AC7-41A5-A288-8AEB98C5A4B5}"/>
+    <workbookView xWindow="39375" yWindow="4845" windowWidth="17280" windowHeight="8880" xr2:uid="{F6643B5E-446B-48C8-AF0C-CA638CE04E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -469,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD3E22F-DF0B-46E6-8069-03427E0C8A0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AAC7CA-22DA-4887-99AE-742CB0893F0B}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X3"/>
+      <selection sqref="A1:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,46 +583,36 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:W3" si="0">M3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
